--- a/HopeMDM/2015年5月15日6260售达方、送达方显示手机字段/6260售达方、送达方显示手机字段.xlsx
+++ b/HopeMDM/2015年5月15日6260售达方、送达方显示手机字段/6260售达方、送达方显示手机字段.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="42">
   <si>
     <t>1</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>FinancialManager</t>
-  </si>
-  <si>
-    <t>CUSTOMER_NAME</t>
   </si>
   <si>
     <t>HM_APPLY_CUSTOMER</t>
@@ -116,6 +113,40 @@
   </si>
   <si>
     <t>2015051514</t>
+  </si>
+  <si>
+    <t>FinancialManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOBILE_PHONE</t>
+  </si>
+  <si>
+    <t>CST-CREATE-6260-0211-SALES</t>
+  </si>
+  <si>
+    <t>2015051515</t>
+  </si>
+  <si>
+    <t>2015051516</t>
+  </si>
+  <si>
+    <t>2015051517</t>
+  </si>
+  <si>
+    <t>2015051518</t>
+  </si>
+  <si>
+    <t>2015051519</t>
+  </si>
+  <si>
+    <t>2015051520</t>
+  </si>
+  <si>
+    <t>2015051521</t>
+  </si>
+  <si>
+    <t>2015051522</t>
   </si>
 </sst>
 </file>
@@ -138,12 +169,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -158,9 +195,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -462,21 +500,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="31.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -497,25 +542,25 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>0</v>
@@ -539,12 +584,12 @@
         <v>2</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -562,28 +607,28 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>0</v>
@@ -607,12 +652,12 @@
         <v>0</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -633,25 +678,25 @@
         <v>3</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>0</v>
@@ -675,12 +720,12 @@
         <v>2</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -701,25 +746,25 @@
         <v>3</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>0</v>
@@ -743,12 +788,12 @@
         <v>2</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -766,28 +811,28 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>0</v>
@@ -811,12 +856,12 @@
         <v>2</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -834,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>4</v>
@@ -843,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>0</v>
@@ -879,12 +924,12 @@
         <v>2</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
@@ -902,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>0</v>
@@ -947,12 +992,12 @@
         <v>0</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
@@ -970,28 +1015,28 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>0</v>
@@ -1015,12 +1060,12 @@
         <v>2</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -1038,28 +1083,28 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>0</v>
@@ -1083,12 +1128,12 @@
         <v>2</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -1109,25 +1154,25 @@
         <v>3</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>0</v>
@@ -1151,12 +1196,12 @@
         <v>0</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
@@ -1177,25 +1222,25 @@
         <v>3</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>0</v>
@@ -1219,12 +1264,12 @@
         <v>0</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -1245,25 +1290,25 @@
         <v>3</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>0</v>
@@ -1287,12 +1332,12 @@
         <v>2</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -1310,28 +1355,28 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>0</v>
@@ -1355,12 +1400,12 @@
         <v>2</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
@@ -1378,52 +1423,596 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>10</v>
+      <c r="L17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
